--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/123/correct_predictions_123.xlsx
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1217,31 +1217,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,42 +1286,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,52 +1556,52 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,31 +1727,31 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/123/correct_predictions_123.xlsx
@@ -566,42 +566,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1217,31 +1217,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1286,42 +1286,42 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,42 +1466,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1556,52 +1556,52 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1616,42 +1616,42 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1727,31 +1727,31 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
